--- a/data/pca/factorExposure/factorExposure_2017-06-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-06-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02361038267022599</v>
+        <v>0.009060383261978257</v>
       </c>
       <c r="C2">
-        <v>-0.003669248792149824</v>
+        <v>0.04236716286470478</v>
       </c>
       <c r="D2">
-        <v>-0.0289813655448918</v>
+        <v>-0.02960770769890485</v>
       </c>
       <c r="E2">
-        <v>-0.01000815797852905</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03044092614749011</v>
+      </c>
+      <c r="F2">
+        <v>0.008605121569467262</v>
+      </c>
+      <c r="G2">
+        <v>0.07471849621063731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01774073249079408</v>
+        <v>0.04335450578996062</v>
       </c>
       <c r="C3">
-        <v>0.05501058336721241</v>
+        <v>0.0904090295069908</v>
       </c>
       <c r="D3">
-        <v>-0.04730780336689494</v>
+        <v>-0.01754317904479209</v>
       </c>
       <c r="E3">
-        <v>-0.01374131389037316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.1018539054096445</v>
+      </c>
+      <c r="F3">
+        <v>0.01143800427930444</v>
+      </c>
+      <c r="G3">
+        <v>0.1740128670651567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02383860224072861</v>
+        <v>0.05544032461346018</v>
       </c>
       <c r="C4">
-        <v>0.01137268901256007</v>
+        <v>0.06701144447970572</v>
       </c>
       <c r="D4">
-        <v>-0.0794018270676741</v>
+        <v>-0.02456826759989563</v>
       </c>
       <c r="E4">
-        <v>0.01761533393379653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02496387126247409</v>
+      </c>
+      <c r="F4">
+        <v>0.0127048687260379</v>
+      </c>
+      <c r="G4">
+        <v>0.08811670092124514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01453947087761798</v>
+        <v>0.03692909085430768</v>
       </c>
       <c r="C6">
-        <v>0.0007345469638223757</v>
+        <v>0.05322024633662761</v>
       </c>
       <c r="D6">
-        <v>-0.08105258936140471</v>
+        <v>-0.01641493953752114</v>
       </c>
       <c r="E6">
-        <v>0.01020327516074021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02367879459799411</v>
+      </c>
+      <c r="F6">
+        <v>0.00905387561351617</v>
+      </c>
+      <c r="G6">
+        <v>0.06183464630917558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01118746722203488</v>
+        <v>0.01944004902881493</v>
       </c>
       <c r="C7">
-        <v>0.006423246310014586</v>
+        <v>0.04063746171275475</v>
       </c>
       <c r="D7">
-        <v>-0.04149200597952422</v>
+        <v>-0.013173813343034</v>
       </c>
       <c r="E7">
-        <v>0.05819820764583396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.005513306177654732</v>
+      </c>
+      <c r="F7">
+        <v>-0.003005035832878508</v>
+      </c>
+      <c r="G7">
+        <v>0.1177581153191665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0002102560604010309</v>
+        <v>0.001888669852277075</v>
       </c>
       <c r="C8">
-        <v>-0.002091776148417939</v>
+        <v>0.02331119496679631</v>
       </c>
       <c r="D8">
-        <v>-0.003256796012991052</v>
+        <v>-0.003959207620150806</v>
       </c>
       <c r="E8">
-        <v>0.008660957177240429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02039604323732877</v>
+      </c>
+      <c r="F8">
+        <v>0.007592419884872679</v>
+      </c>
+      <c r="G8">
+        <v>0.05684436573523706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01646002202642061</v>
+        <v>0.03264306264321302</v>
       </c>
       <c r="C9">
-        <v>0.01383959871054499</v>
+        <v>0.04824729039112869</v>
       </c>
       <c r="D9">
-        <v>-0.06005464848368027</v>
+        <v>-0.01670086725350921</v>
       </c>
       <c r="E9">
-        <v>0.006424965893705374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01560457916080646</v>
+      </c>
+      <c r="F9">
+        <v>0.01030967599707811</v>
+      </c>
+      <c r="G9">
+        <v>0.08414327222700287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02372767899581064</v>
+        <v>0.09978516180382201</v>
       </c>
       <c r="C10">
-        <v>0.1738147369530621</v>
+        <v>-0.1810583488589411</v>
       </c>
       <c r="D10">
-        <v>0.09511635666672182</v>
+        <v>0.01504739162533233</v>
       </c>
       <c r="E10">
-        <v>-0.01219126495746792</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01788871118626592</v>
+      </c>
+      <c r="F10">
+        <v>-0.02126929434770493</v>
+      </c>
+      <c r="G10">
+        <v>0.05285491749911558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0006940787588272882</v>
+        <v>0.03392309314073194</v>
       </c>
       <c r="C11">
-        <v>0.00262773653502419</v>
+        <v>0.05492406432343575</v>
       </c>
       <c r="D11">
-        <v>-0.04649174948298451</v>
+        <v>-0.002418931534604781</v>
       </c>
       <c r="E11">
-        <v>-0.004670345612075965</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.008368467124330448</v>
+      </c>
+      <c r="F11">
+        <v>0.02185557441104182</v>
+      </c>
+      <c r="G11">
+        <v>0.06702741143945515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.00636154706999587</v>
+        <v>0.0355480077964085</v>
       </c>
       <c r="C12">
-        <v>0.00927361871036839</v>
+        <v>0.0488990361189118</v>
       </c>
       <c r="D12">
-        <v>-0.0480651337097949</v>
+        <v>-0.006186418333397942</v>
       </c>
       <c r="E12">
-        <v>0.006992199668733658</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0002435252084440569</v>
+      </c>
+      <c r="F12">
+        <v>0.001557364036025013</v>
+      </c>
+      <c r="G12">
+        <v>0.0631953812738424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02409345156326489</v>
+        <v>0.0146087944244026</v>
       </c>
       <c r="C13">
-        <v>0.01731736922039962</v>
+        <v>0.03783406944286211</v>
       </c>
       <c r="D13">
-        <v>-0.009199082805622299</v>
+        <v>-0.02610069950962439</v>
       </c>
       <c r="E13">
-        <v>-0.008568066978019031</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02792420598453045</v>
+      </c>
+      <c r="F13">
+        <v>0.006387285312990483</v>
+      </c>
+      <c r="G13">
+        <v>0.09734836543762287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008780315989565893</v>
+        <v>0.007665596811713137</v>
       </c>
       <c r="C14">
-        <v>0.01417527326047868</v>
+        <v>0.0266951618250693</v>
       </c>
       <c r="D14">
-        <v>-0.01165361523193014</v>
+        <v>-0.009437982599788756</v>
       </c>
       <c r="E14">
-        <v>0.008493672532671376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.0007049789180518825</v>
+      </c>
+      <c r="F14">
+        <v>-0.00749800154688338</v>
+      </c>
+      <c r="G14">
+        <v>0.08327557004870113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001619968480780259</v>
+        <v>0.03277385252214425</v>
       </c>
       <c r="C16">
-        <v>0.009096071873037331</v>
+        <v>0.04869901611736313</v>
       </c>
       <c r="D16">
-        <v>-0.04955613780448114</v>
+        <v>-0.001967942176464057</v>
       </c>
       <c r="E16">
-        <v>0.006231339809119751</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.007544812709441302</v>
+      </c>
+      <c r="F16">
+        <v>0.002960815601030896</v>
+      </c>
+      <c r="G16">
+        <v>0.06986082904790232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01490755995277824</v>
+        <v>0.01962988214945938</v>
       </c>
       <c r="C19">
-        <v>0.01773229313133614</v>
+        <v>0.04937441727789335</v>
       </c>
       <c r="D19">
-        <v>-0.02193468753027574</v>
+        <v>-0.0186814036878529</v>
       </c>
       <c r="E19">
-        <v>0.0066776940485374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06401358603154753</v>
+      </c>
+      <c r="F19">
+        <v>0.02310581975330675</v>
+      </c>
+      <c r="G19">
+        <v>0.1138164720850742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01112311073284619</v>
+        <v>0.01401004399418392</v>
       </c>
       <c r="C20">
-        <v>0.005934566576610941</v>
+        <v>0.03753034302946965</v>
       </c>
       <c r="D20">
-        <v>-0.01767205526617654</v>
+        <v>-0.01403962731972704</v>
       </c>
       <c r="E20">
-        <v>-0.009801003218864783</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02660353913352827</v>
+      </c>
+      <c r="F20">
+        <v>-0.009634255365748112</v>
+      </c>
+      <c r="G20">
+        <v>0.08933267314920856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01544124554958257</v>
+        <v>0.011630387923971</v>
       </c>
       <c r="C21">
-        <v>0.01772302830376829</v>
+        <v>0.03890454195328145</v>
       </c>
       <c r="D21">
-        <v>-0.02621353167283724</v>
+        <v>-0.01841448857300917</v>
       </c>
       <c r="E21">
-        <v>0.01305184722893971</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.0391686912835797</v>
+      </c>
+      <c r="F21">
+        <v>1.575838140292206e-05</v>
+      </c>
+      <c r="G21">
+        <v>0.1180044347988135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0005223029825864439</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0001654901212376354</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.0001677797424444983</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0006467663895027029</v>
+      </c>
+      <c r="F22">
+        <v>0.0005385931926883893</v>
+      </c>
+      <c r="G22">
+        <v>0.001514750925561961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0005223029825864439</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0001654901212376354</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.0001677797424444983</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0006467663895027029</v>
+      </c>
+      <c r="F23">
+        <v>0.0005385931926883893</v>
+      </c>
+      <c r="G23">
+        <v>0.001514750925561961</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004470890100352605</v>
+        <v>0.02727324357199349</v>
       </c>
       <c r="C24">
-        <v>-0.00250920327633461</v>
+        <v>0.05139472544792884</v>
       </c>
       <c r="D24">
-        <v>-0.04604393202053965</v>
+        <v>-0.007248446958376795</v>
       </c>
       <c r="E24">
-        <v>0.002816177359952811</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.004213336931012017</v>
+      </c>
+      <c r="F24">
+        <v>0.01444838042315076</v>
+      </c>
+      <c r="G24">
+        <v>0.07056103600051464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01253345758166222</v>
+        <v>0.04198372669694239</v>
       </c>
       <c r="C25">
-        <v>0.01489106675184533</v>
+        <v>0.0587604831294167</v>
       </c>
       <c r="D25">
-        <v>-0.04944400467532038</v>
+        <v>-0.01124625139979456</v>
       </c>
       <c r="E25">
-        <v>0.003105086062470956</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.002071446252943229</v>
+      </c>
+      <c r="F25">
+        <v>0.008512697844200256</v>
+      </c>
+      <c r="G25">
+        <v>0.07885894766025062</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02341979649512615</v>
+        <v>0.01409611321214288</v>
       </c>
       <c r="C26">
-        <v>0.009390618159808963</v>
+        <v>0.01039913632740053</v>
       </c>
       <c r="D26">
-        <v>0.00168753307189648</v>
+        <v>-0.02372425325847616</v>
       </c>
       <c r="E26">
-        <v>0.008722156935038149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.004884548726152468</v>
+      </c>
+      <c r="F26">
+        <v>-0.008091815186018916</v>
+      </c>
+      <c r="G26">
+        <v>0.06591080449185187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.04762067502020899</v>
+        <v>0.1288027812072741</v>
       </c>
       <c r="C28">
-        <v>0.246953629592961</v>
+        <v>-0.2346147429042338</v>
       </c>
       <c r="D28">
-        <v>0.1363100095374858</v>
+        <v>0.005943380253501666</v>
       </c>
       <c r="E28">
-        <v>0.009647314862483493</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.005292911135511739</v>
+      </c>
+      <c r="F28">
+        <v>-0.01654410114474472</v>
+      </c>
+      <c r="G28">
+        <v>0.06649843664904126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009212365050037733</v>
+        <v>0.008999807021411878</v>
       </c>
       <c r="C29">
-        <v>0.01876694435737386</v>
+        <v>0.02068693922612641</v>
       </c>
       <c r="D29">
-        <v>-0.01026260602506274</v>
+        <v>-0.008403636234322302</v>
       </c>
       <c r="E29">
-        <v>0.003617698863417792</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.001664816523414462</v>
+      </c>
+      <c r="F29">
+        <v>-0.01629991481967465</v>
+      </c>
+      <c r="G29">
+        <v>0.0755211935982987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02431503122555594</v>
+        <v>0.04023933128436166</v>
       </c>
       <c r="C30">
-        <v>-0.0009311037384736527</v>
+        <v>0.06758538504973749</v>
       </c>
       <c r="D30">
-        <v>-0.06144723161673837</v>
+        <v>-0.02916918037708831</v>
       </c>
       <c r="E30">
-        <v>-0.04467102779896486</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05056108689353479</v>
+      </c>
+      <c r="F30">
+        <v>0.05136016001421811</v>
+      </c>
+      <c r="G30">
+        <v>0.08530874353075454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01018492706790168</v>
+        <v>0.05224332349462027</v>
       </c>
       <c r="C31">
-        <v>0.03902316618417701</v>
+        <v>0.03689889289072685</v>
       </c>
       <c r="D31">
-        <v>-0.04638096233639746</v>
+        <v>-0.00344409810697001</v>
       </c>
       <c r="E31">
-        <v>0.01085913879501494</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.004395396063451829</v>
+      </c>
+      <c r="F31">
+        <v>-0.040015798159201</v>
+      </c>
+      <c r="G31">
+        <v>0.07513368971882327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.004513209851537636</v>
+        <v>0.001277420528026131</v>
       </c>
       <c r="C32">
-        <v>0.02325594984038764</v>
+        <v>0.02252997021479903</v>
       </c>
       <c r="D32">
-        <v>0.0005015439973081967</v>
+        <v>0.004018977695875369</v>
       </c>
       <c r="E32">
-        <v>0.05282188006310769</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01422990251768904</v>
+      </c>
+      <c r="F32">
+        <v>0.03874848452169548</v>
+      </c>
+      <c r="G32">
+        <v>0.09296461158469813</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01449327669550564</v>
+        <v>0.02685113325502438</v>
       </c>
       <c r="C33">
-        <v>0.0231733041182593</v>
+        <v>0.04888274334778327</v>
       </c>
       <c r="D33">
-        <v>-0.03545639780588994</v>
+        <v>-0.01554563122830984</v>
       </c>
       <c r="E33">
-        <v>-0.02804329141942077</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03269573431275995</v>
+      </c>
+      <c r="F33">
+        <v>0.01877125586930879</v>
+      </c>
+      <c r="G33">
+        <v>0.1124703151413821</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003884293238030594</v>
+        <v>0.03974393855317547</v>
       </c>
       <c r="C34">
-        <v>0.01510150867535616</v>
+        <v>0.06258189410791459</v>
       </c>
       <c r="D34">
-        <v>-0.05411938779028382</v>
+        <v>0.004594310414655097</v>
       </c>
       <c r="E34">
-        <v>0.01071779579290539</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.001444701741332323</v>
+      </c>
+      <c r="F34">
+        <v>0.02118492919467571</v>
+      </c>
+      <c r="G34">
+        <v>0.07878250538306314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01339580742524826</v>
+        <v>0.01548839098001446</v>
       </c>
       <c r="C36">
-        <v>0.01940633374242512</v>
+        <v>0.008520038280406797</v>
       </c>
       <c r="D36">
-        <v>-0.00712395415558028</v>
+        <v>-0.01187680132893807</v>
       </c>
       <c r="E36">
-        <v>0.00369071385896403</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.00145791738037889</v>
+      </c>
+      <c r="F36">
+        <v>-0.00694582256928393</v>
+      </c>
+      <c r="G36">
+        <v>0.0665741169682046</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.002870961985114013</v>
+        <v>0.03236155431346282</v>
       </c>
       <c r="C38">
-        <v>0.03226778783251127</v>
+        <v>0.03125489309064806</v>
       </c>
       <c r="D38">
-        <v>-0.0434989216291345</v>
+        <v>0.007635819936585183</v>
       </c>
       <c r="E38">
-        <v>0.008123303265041841</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002384866483744184</v>
+      </c>
+      <c r="F38">
+        <v>-0.01691963645011814</v>
+      </c>
+      <c r="G38">
+        <v>0.07050500382937931</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.004188633754184058</v>
+        <v>0.03416390530637905</v>
       </c>
       <c r="C39">
-        <v>-0.02483297889836717</v>
+        <v>0.08093443392357275</v>
       </c>
       <c r="D39">
-        <v>-0.08795520490704213</v>
+        <v>-0.01173007527592898</v>
       </c>
       <c r="E39">
-        <v>-0.008045892346092791</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.01846806455085211</v>
+      </c>
+      <c r="F39">
+        <v>0.02716959229424315</v>
+      </c>
+      <c r="G39">
+        <v>0.06706408851392734</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01249504831799927</v>
+        <v>0.01496554780522851</v>
       </c>
       <c r="C40">
-        <v>0.01532040010572503</v>
+        <v>0.04179588252744267</v>
       </c>
       <c r="D40">
-        <v>-0.02930711942874688</v>
+        <v>-0.01499457062314842</v>
       </c>
       <c r="E40">
-        <v>0.004061909950538134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02062866025734203</v>
+      </c>
+      <c r="F40">
+        <v>-0.01335671376589231</v>
+      </c>
+      <c r="G40">
+        <v>0.1069434062241089</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006598977574231564</v>
+        <v>0.01917345916026716</v>
       </c>
       <c r="C41">
-        <v>0.02138524617210184</v>
+        <v>-0.0003714021840460577</v>
       </c>
       <c r="D41">
-        <v>0.00742130292818865</v>
+        <v>-0.003966114299479201</v>
       </c>
       <c r="E41">
-        <v>0.003263190204632627</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0001780241848148955</v>
+      </c>
+      <c r="F41">
+        <v>-0.01149149827628778</v>
+      </c>
+      <c r="G41">
+        <v>0.05359645018168732</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09273571522452377</v>
+        <v>0.009605684329357668</v>
       </c>
       <c r="C42">
-        <v>-0.02767727013354675</v>
+        <v>0.03688595376546586</v>
       </c>
       <c r="D42">
-        <v>-0.2474827843206838</v>
+        <v>-0.0932600713955361</v>
       </c>
       <c r="E42">
-        <v>-0.4042054666557101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.02738994376724401</v>
+      </c>
+      <c r="F42">
+        <v>-0.03449409778722962</v>
+      </c>
+      <c r="G42">
+        <v>-0.1442961281563398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.008079229940473404</v>
+        <v>0.03300249421243902</v>
       </c>
       <c r="C43">
-        <v>0.02661766782732208</v>
+        <v>0.01416910155396964</v>
       </c>
       <c r="D43">
-        <v>0.005234802030598856</v>
+        <v>-0.005798691094289929</v>
       </c>
       <c r="E43">
-        <v>-0.001398034430912929</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01414620502024691</v>
+      </c>
+      <c r="F43">
+        <v>-0.001911388842019074</v>
+      </c>
+      <c r="G43">
+        <v>0.08018233449188462</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002911591040840651</v>
+        <v>0.01141663285169276</v>
       </c>
       <c r="C44">
-        <v>0.001787423112936129</v>
+        <v>0.05645277692473914</v>
       </c>
       <c r="D44">
-        <v>-0.04009417917469383</v>
+        <v>-0.006524759134833966</v>
       </c>
       <c r="E44">
-        <v>0.008442120935431256</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01655857332921681</v>
+      </c>
+      <c r="F44">
+        <v>-0.00946819040637881</v>
+      </c>
+      <c r="G44">
+        <v>0.08781544827076734</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01158692235370515</v>
+        <v>0.007413939926993992</v>
       </c>
       <c r="C46">
-        <v>0.01449840134802991</v>
+        <v>0.01550681696356435</v>
       </c>
       <c r="D46">
-        <v>-0.01090328913545773</v>
+        <v>-0.0120728945777386</v>
       </c>
       <c r="E46">
-        <v>-0.0001099294009504679</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001396422858139394</v>
+      </c>
+      <c r="F46">
+        <v>-0.01598533924759004</v>
+      </c>
+      <c r="G46">
+        <v>0.07635322563498552</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.004753477244240201</v>
+        <v>0.0769235379608398</v>
       </c>
       <c r="C47">
-        <v>0.04811702519012982</v>
+        <v>0.06695450882149621</v>
       </c>
       <c r="D47">
-        <v>-0.07257368239860829</v>
+        <v>0.005297664732413779</v>
       </c>
       <c r="E47">
-        <v>0.006157456240683411</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.008727376489319897</v>
+      </c>
+      <c r="F47">
+        <v>-0.05374164418432015</v>
+      </c>
+      <c r="G47">
+        <v>0.06871249741072946</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004233204582459138</v>
+        <v>0.02019943344829842</v>
       </c>
       <c r="C48">
-        <v>0.02339987683507376</v>
+        <v>0.01199536142686384</v>
       </c>
       <c r="D48">
-        <v>-0.01894255562752442</v>
+        <v>-0.001305985782486196</v>
       </c>
       <c r="E48">
-        <v>0.003100324339023032</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.001087007403616326</v>
+      </c>
+      <c r="F48">
+        <v>-0.02039667370937734</v>
+      </c>
+      <c r="G48">
+        <v>0.07197146050479399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.007224849989018363</v>
+        <v>0.07516671859290927</v>
       </c>
       <c r="C50">
-        <v>0.0529269287330873</v>
+        <v>0.06938949444874198</v>
       </c>
       <c r="D50">
-        <v>-0.07222158976721504</v>
+        <v>0.002894010187295494</v>
       </c>
       <c r="E50">
-        <v>0.0330628868011526</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.008603039680471707</v>
+      </c>
+      <c r="F50">
+        <v>-0.05734675414937877</v>
+      </c>
+      <c r="G50">
+        <v>0.08829430243238394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007746108588725804</v>
+        <v>0.0133001018110639</v>
       </c>
       <c r="C51">
-        <v>0.01435466561967955</v>
+        <v>0.03428638064323172</v>
       </c>
       <c r="D51">
-        <v>-0.001091769707560173</v>
+        <v>-0.01006079894057314</v>
       </c>
       <c r="E51">
-        <v>0.006108565095515383</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01586223610312806</v>
+      </c>
+      <c r="F51">
+        <v>0.02367294732858882</v>
+      </c>
+      <c r="G51">
+        <v>0.1040541991130723</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.00790478515310292</v>
+        <v>0.081207855555205</v>
       </c>
       <c r="C53">
-        <v>0.05830644610279748</v>
+        <v>0.08452804413481969</v>
       </c>
       <c r="D53">
-        <v>-0.1309486923512407</v>
+        <v>0.004275655488073495</v>
       </c>
       <c r="E53">
-        <v>0.01455462717597038</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02859488684534536</v>
+      </c>
+      <c r="F53">
+        <v>-0.06569077700844836</v>
+      </c>
+      <c r="G53">
+        <v>0.06842672010999382</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.002301956392949855</v>
+        <v>0.02873827385033612</v>
       </c>
       <c r="C54">
-        <v>0.03565799097707324</v>
+        <v>0.01497286558252759</v>
       </c>
       <c r="D54">
-        <v>0.006608880649602156</v>
+        <v>0.001518842012100121</v>
       </c>
       <c r="E54">
-        <v>0.001203419635967052</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.0095688122576778</v>
+      </c>
+      <c r="F54">
+        <v>0.0009730284856890631</v>
+      </c>
+      <c r="G54">
+        <v>0.07800810112449445</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.003909613808954239</v>
+        <v>0.07086427982890597</v>
       </c>
       <c r="C55">
-        <v>0.03693592018825974</v>
+        <v>0.06915244910025026</v>
       </c>
       <c r="D55">
-        <v>-0.1043640642407893</v>
+        <v>0.005391172024643335</v>
       </c>
       <c r="E55">
-        <v>-0.0003548117803369107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02413875494873029</v>
+      </c>
+      <c r="F55">
+        <v>-0.06145583896796118</v>
+      </c>
+      <c r="G55">
+        <v>0.04315252499344832</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.007266598191195951</v>
+        <v>0.1372123525132329</v>
       </c>
       <c r="C56">
-        <v>0.08189108990049544</v>
+        <v>0.110051998259301</v>
       </c>
       <c r="D56">
-        <v>-0.1671600367738385</v>
+        <v>0.01269375961515405</v>
       </c>
       <c r="E56">
-        <v>0.004189137508071617</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03181416452417693</v>
+      </c>
+      <c r="F56">
+        <v>-0.07938178277973246</v>
+      </c>
+      <c r="G56">
+        <v>0.02099950710338573</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02402297640065433</v>
+        <v>0.006842236476582955</v>
       </c>
       <c r="C57">
-        <v>0.008113539201053814</v>
+        <v>0.009296180427919248</v>
       </c>
       <c r="D57">
-        <v>-0.04645971245125396</v>
+        <v>-0.02361917465767703</v>
       </c>
       <c r="E57">
-        <v>-0.00158815531865272</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02392580410261075</v>
+      </c>
+      <c r="F57">
+        <v>0.008960520457122933</v>
+      </c>
+      <c r="G57">
+        <v>0.02872994760909636</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01492648908355423</v>
+        <v>0.05749534124870834</v>
       </c>
       <c r="C58">
-        <v>0.05912728093896114</v>
+        <v>0.05298683716484677</v>
       </c>
       <c r="D58">
-        <v>-0.1469941451157562</v>
+        <v>-0.03101054131965291</v>
       </c>
       <c r="E58">
-        <v>-0.4290406971894882</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.937941274016218</v>
+      </c>
+      <c r="F58">
+        <v>-0.2310252112237889</v>
+      </c>
+      <c r="G58">
+        <v>-0.1144026980026452</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.04567620567919991</v>
+        <v>0.161353050873937</v>
       </c>
       <c r="C59">
-        <v>0.2635949912252996</v>
+        <v>-0.1996203076254283</v>
       </c>
       <c r="D59">
-        <v>0.1360218797460463</v>
+        <v>0.01102290424700224</v>
       </c>
       <c r="E59">
-        <v>0.002625664511553914</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01729577272629325</v>
+      </c>
+      <c r="F59">
+        <v>0.002013251810672759</v>
+      </c>
+      <c r="G59">
+        <v>0.041084063882872</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04425388898952733</v>
+        <v>0.2848771437814875</v>
       </c>
       <c r="C60">
-        <v>0.1604236560865272</v>
+        <v>0.107163762025118</v>
       </c>
       <c r="D60">
-        <v>-0.09403216783390962</v>
+        <v>-0.01301629274389813</v>
       </c>
       <c r="E60">
-        <v>0.003575337110916478</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.0006489444671136274</v>
+      </c>
+      <c r="F60">
+        <v>0.350657022661296</v>
+      </c>
+      <c r="G60">
+        <v>-0.1265711869280866</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003241117502799061</v>
+        <v>0.03643347341688978</v>
       </c>
       <c r="C61">
-        <v>0.003897529075086254</v>
+        <v>0.06722400833966523</v>
       </c>
       <c r="D61">
-        <v>-0.06629957030389812</v>
+        <v>-0.00514212785701594</v>
       </c>
       <c r="E61">
-        <v>0.003532625485105263</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01146137822277971</v>
+      </c>
+      <c r="F61">
+        <v>0.0146788345233034</v>
+      </c>
+      <c r="G61">
+        <v>0.06881572994782631</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008330482600118625</v>
+        <v>0.01428846219872866</v>
       </c>
       <c r="C63">
-        <v>0.007837658031897855</v>
+        <v>0.02863597737727014</v>
       </c>
       <c r="D63">
-        <v>-0.01792722295477719</v>
+        <v>-0.008182395962160005</v>
       </c>
       <c r="E63">
-        <v>0.009849973995300123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.001064432613745439</v>
+      </c>
+      <c r="F63">
+        <v>-0.0172588488551696</v>
+      </c>
+      <c r="G63">
+        <v>0.07601284361292396</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.009387508799779268</v>
+        <v>0.04716124622264747</v>
       </c>
       <c r="C64">
-        <v>0.02669691118477799</v>
+        <v>0.04595877051848068</v>
       </c>
       <c r="D64">
-        <v>-0.06110592559902531</v>
+        <v>-0.006290876933836773</v>
       </c>
       <c r="E64">
-        <v>-0.01149059982180247</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0009653273709283571</v>
+      </c>
+      <c r="F64">
+        <v>0.006089621775274029</v>
+      </c>
+      <c r="G64">
+        <v>0.06706750289832684</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01654617660465343</v>
+        <v>0.0750380842967744</v>
       </c>
       <c r="C65">
-        <v>-0.0005799777598972589</v>
+        <v>0.06098234658769892</v>
       </c>
       <c r="D65">
-        <v>-0.0928552820374821</v>
+        <v>-0.01645979777178511</v>
       </c>
       <c r="E65">
-        <v>0.0151185819039429</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.02697815509049129</v>
+      </c>
+      <c r="F65">
+        <v>0.02908360999448607</v>
+      </c>
+      <c r="G65">
+        <v>0.02880819020036687</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.004107364153992588</v>
+        <v>0.04976225200415634</v>
       </c>
       <c r="C66">
-        <v>-0.02043362434612973</v>
+        <v>0.1111872972164969</v>
       </c>
       <c r="D66">
-        <v>-0.1158993025652482</v>
+        <v>-0.01172286380555401</v>
       </c>
       <c r="E66">
-        <v>-0.00518546922021515</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.0265597178507386</v>
+      </c>
+      <c r="F66">
+        <v>0.03668235549557646</v>
+      </c>
+      <c r="G66">
+        <v>0.08005786965629831</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.004054855135320049</v>
+        <v>0.05505927419461846</v>
       </c>
       <c r="C67">
-        <v>0.05383412625863736</v>
+        <v>0.03548065122433283</v>
       </c>
       <c r="D67">
-        <v>-0.05286979877599494</v>
+        <v>0.005943401361123453</v>
       </c>
       <c r="E67">
-        <v>0.00886280705573389</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.004126894602446713</v>
+      </c>
+      <c r="F67">
+        <v>-0.01700221144975789</v>
+      </c>
+      <c r="G67">
+        <v>0.06305431094864404</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.06109585220594933</v>
+        <v>0.1556119080915381</v>
       </c>
       <c r="C68">
-        <v>0.2389796260433599</v>
+        <v>-0.2676406595522969</v>
       </c>
       <c r="D68">
-        <v>0.154149608305605</v>
+        <v>-0.005994140468102204</v>
       </c>
       <c r="E68">
-        <v>-0.02014793545600612</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01054833387178535</v>
+      </c>
+      <c r="F68">
+        <v>-0.03237975381473625</v>
+      </c>
+      <c r="G68">
+        <v>0.02381631834630874</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0004283717491054703</v>
+        <v>0.08051679116246908</v>
       </c>
       <c r="C69">
-        <v>0.03773368951276181</v>
+        <v>0.0701600407671661</v>
       </c>
       <c r="D69">
-        <v>-0.0738167130377886</v>
+        <v>0.009388663315760003</v>
       </c>
       <c r="E69">
-        <v>0.0119597836379294</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02554839867934759</v>
+      </c>
+      <c r="F69">
+        <v>-0.03649960198822534</v>
+      </c>
+      <c r="G69">
+        <v>0.07080283388385934</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.0456608725935876</v>
+        <v>0.1421401132412318</v>
       </c>
       <c r="C71">
-        <v>0.2096952305460489</v>
+        <v>-0.228225829656662</v>
       </c>
       <c r="D71">
-        <v>0.1161308648791747</v>
+        <v>0.002589422430916522</v>
       </c>
       <c r="E71">
-        <v>-0.01263936285601887</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03101047892036692</v>
+      </c>
+      <c r="F71">
+        <v>-0.01765667840321055</v>
+      </c>
+      <c r="G71">
+        <v>0.05914739958611228</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0006593080280584465</v>
+        <v>0.08423422306794835</v>
       </c>
       <c r="C72">
-        <v>0.03643653243799466</v>
+        <v>0.0728032295594551</v>
       </c>
       <c r="D72">
-        <v>-0.1189676673448405</v>
+        <v>0.008045291045391607</v>
       </c>
       <c r="E72">
-        <v>0.006932318648333114</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.00300733937032557</v>
+      </c>
+      <c r="F72">
+        <v>0.04154596909664678</v>
+      </c>
+      <c r="G72">
+        <v>0.06269614572828416</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05561844118921295</v>
+        <v>0.3733211106454787</v>
       </c>
       <c r="C73">
-        <v>0.1668420943854008</v>
+        <v>0.1246189491876674</v>
       </c>
       <c r="D73">
-        <v>-0.1909162844956983</v>
+        <v>-0.02264384565984359</v>
       </c>
       <c r="E73">
-        <v>-0.03141237654408702</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06693549093572593</v>
+      </c>
+      <c r="F73">
+        <v>0.5731615228713722</v>
+      </c>
+      <c r="G73">
+        <v>-0.2191857916125858</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.003881672224565271</v>
+        <v>0.1048166395032765</v>
       </c>
       <c r="C74">
-        <v>0.06500965319945413</v>
+        <v>0.1118554830546484</v>
       </c>
       <c r="D74">
-        <v>-0.1702245176768912</v>
+        <v>0.00967312941479582</v>
       </c>
       <c r="E74">
-        <v>-0.006801467689211168</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01056840410461309</v>
+      </c>
+      <c r="F74">
+        <v>-0.06887926269181548</v>
+      </c>
+      <c r="G74">
+        <v>0.06551407532066721</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01352913785538449</v>
+        <v>0.2485895346196765</v>
       </c>
       <c r="C75">
-        <v>0.1607601025403243</v>
+        <v>0.1525668133503375</v>
       </c>
       <c r="D75">
-        <v>-0.3006042552590754</v>
+        <v>0.03089488184588201</v>
       </c>
       <c r="E75">
-        <v>-0.01241995985540745</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.0550174981810242</v>
+      </c>
+      <c r="F75">
+        <v>-0.1744830374203632</v>
+      </c>
+      <c r="G75">
+        <v>-0.04757810217947921</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.002115710553925162</v>
+        <v>0.1211313325788625</v>
       </c>
       <c r="C76">
-        <v>0.1044144912877315</v>
+        <v>0.1136530534763757</v>
       </c>
       <c r="D76">
-        <v>-0.2327120220914271</v>
+        <v>0.02022390802230159</v>
       </c>
       <c r="E76">
-        <v>0.03531936722337609</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.03871927486249334</v>
+      </c>
+      <c r="F76">
+        <v>-0.1158479698012579</v>
+      </c>
+      <c r="G76">
+        <v>0.04330596622673925</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.0144916895291531</v>
+        <v>0.06593600660643795</v>
       </c>
       <c r="C77">
-        <v>0.0200003835734339</v>
+        <v>0.06292350755488769</v>
       </c>
       <c r="D77">
-        <v>-0.03937685067987289</v>
+        <v>-0.01274917506930531</v>
       </c>
       <c r="E77">
-        <v>-0.0164909420954353</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04855511152758311</v>
+      </c>
+      <c r="F77">
+        <v>0.01035459701857458</v>
+      </c>
+      <c r="G77">
+        <v>0.05910689774196563</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.005941989244391545</v>
+        <v>0.04176729915454207</v>
       </c>
       <c r="C78">
-        <v>0.01472679374964451</v>
+        <v>0.05087386905442078</v>
       </c>
       <c r="D78">
-        <v>-0.04074443709653941</v>
+        <v>-0.005534944132533417</v>
       </c>
       <c r="E78">
-        <v>-0.002916824847734101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02144109539804726</v>
+      </c>
+      <c r="F78">
+        <v>0.03769040718449071</v>
+      </c>
+      <c r="G78">
+        <v>0.07121023677710506</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01723819901002944</v>
+        <v>0.05389784346614924</v>
       </c>
       <c r="C80">
-        <v>0.07693056983702491</v>
+        <v>0.0708503119440405</v>
       </c>
       <c r="D80">
-        <v>-0.2018393368297789</v>
+        <v>-0.01048176098136169</v>
       </c>
       <c r="E80">
-        <v>0.7813577232583426</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02592664228734845</v>
+      </c>
+      <c r="F80">
+        <v>0.001458714262210797</v>
+      </c>
+      <c r="G80">
+        <v>0.5927854539333769</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.009600674496099</v>
+        <v>0.1396635821761329</v>
       </c>
       <c r="C81">
-        <v>0.1001815576272357</v>
+        <v>0.09731293368167024</v>
       </c>
       <c r="D81">
-        <v>-0.1710996082040911</v>
+        <v>0.01552222242064446</v>
       </c>
       <c r="E81">
-        <v>0.01635332229324827</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03338567912375096</v>
+      </c>
+      <c r="F81">
+        <v>-0.1333423905818133</v>
+      </c>
+      <c r="G81">
+        <v>0.02379629102291766</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1235161109263297</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07103688026259097</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.008099775852522787</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08725464781167051</v>
+      </c>
+      <c r="F82">
+        <v>-0.03381313054345712</v>
+      </c>
+      <c r="G82">
+        <v>0.02393436514713637</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007070216887460471</v>
+        <v>0.03630009340617836</v>
       </c>
       <c r="C83">
-        <v>0.01791263158573769</v>
+        <v>0.02817500428322274</v>
       </c>
       <c r="D83">
-        <v>-0.02237750918159683</v>
+        <v>-0.005615542724378062</v>
       </c>
       <c r="E83">
-        <v>-0.0004449460678965169</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02507324098478714</v>
+      </c>
+      <c r="F83">
+        <v>0.0330847559314904</v>
+      </c>
+      <c r="G83">
+        <v>0.04701764939183475</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.0200677494739388</v>
+        <v>0.2143637657557137</v>
       </c>
       <c r="C85">
-        <v>0.1281525802660489</v>
+        <v>0.1487537318601872</v>
       </c>
       <c r="D85">
-        <v>-0.2770819400260218</v>
+        <v>0.01887428708368902</v>
       </c>
       <c r="E85">
-        <v>-0.00471148376157177</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.0961988262856954</v>
+      </c>
+      <c r="F85">
+        <v>-0.1372090363088879</v>
+      </c>
+      <c r="G85">
+        <v>-0.1009937980074212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009651566101463805</v>
+        <v>0.01338357429534029</v>
       </c>
       <c r="C86">
-        <v>0.02788463987520089</v>
+        <v>0.02651418206790897</v>
       </c>
       <c r="D86">
-        <v>-0.01538431176853085</v>
+        <v>-0.01211835907914375</v>
       </c>
       <c r="E86">
-        <v>-0.03439682121877038</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04314809452858351</v>
+      </c>
+      <c r="F86">
+        <v>0.03189693749342952</v>
+      </c>
+      <c r="G86">
+        <v>0.1537945289379036</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008885190720000722</v>
+        <v>0.02287106886991555</v>
       </c>
       <c r="C87">
-        <v>0.006397808752043256</v>
+        <v>0.02273236885853055</v>
       </c>
       <c r="D87">
-        <v>-0.0404197728320955</v>
+        <v>-0.01239783894743958</v>
       </c>
       <c r="E87">
-        <v>-0.006623769781313561</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08282137448384508</v>
+      </c>
+      <c r="F87">
+        <v>0.02002851937039834</v>
+      </c>
+      <c r="G87">
+        <v>0.1012669215142932</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02780402976005029</v>
+        <v>0.09050920745571508</v>
       </c>
       <c r="C88">
-        <v>0.02763678965697398</v>
+        <v>0.06582302621887287</v>
       </c>
       <c r="D88">
-        <v>-0.03801365200431032</v>
+        <v>-0.02249398662438182</v>
       </c>
       <c r="E88">
-        <v>0.001243306910887078</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.00902986524348646</v>
+      </c>
+      <c r="F88">
+        <v>-0.01755766057189798</v>
+      </c>
+      <c r="G88">
+        <v>0.05594623293452154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.08844384925559062</v>
+        <v>0.2353989830780774</v>
       </c>
       <c r="C89">
-        <v>0.3953485840820754</v>
+        <v>-0.3681699104107262</v>
       </c>
       <c r="D89">
-        <v>0.2088356095601407</v>
+        <v>0.0005982469015745341</v>
       </c>
       <c r="E89">
-        <v>0.01159535320335117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01683491208321117</v>
+      </c>
+      <c r="F89">
+        <v>-0.02948162229468237</v>
+      </c>
+      <c r="G89">
+        <v>0.05233318241904315</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06691278600900163</v>
+        <v>0.2095586591709212</v>
       </c>
       <c r="C90">
-        <v>0.3054516084407101</v>
+        <v>-0.3189912232865092</v>
       </c>
       <c r="D90">
-        <v>0.1893399445470822</v>
+        <v>0.004581185943927982</v>
       </c>
       <c r="E90">
-        <v>-0.0220553940016135</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.00418187572844395</v>
+      </c>
+      <c r="F90">
+        <v>-0.04945650822795081</v>
+      </c>
+      <c r="G90">
+        <v>0.01887387306143114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.009750309692396486</v>
+        <v>0.1881849894975791</v>
       </c>
       <c r="C91">
-        <v>0.1399200359968051</v>
+        <v>0.1441174762195882</v>
       </c>
       <c r="D91">
-        <v>-0.2311338549664974</v>
+        <v>0.02317338872704373</v>
       </c>
       <c r="E91">
-        <v>0.01561941477183491</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06544325179185144</v>
+      </c>
+      <c r="F91">
+        <v>-0.1459753679031672</v>
+      </c>
+      <c r="G91">
+        <v>0.01676385265971037</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.03425120817943116</v>
+        <v>0.203561651940607</v>
       </c>
       <c r="C92">
-        <v>0.3165189405622165</v>
+        <v>-0.2562712708318014</v>
       </c>
       <c r="D92">
-        <v>0.0793585862913453</v>
+        <v>0.03870409341315113</v>
       </c>
       <c r="E92">
-        <v>-0.02244548760619733</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.02987108480614852</v>
+      </c>
+      <c r="F92">
+        <v>-0.06181489735449766</v>
+      </c>
+      <c r="G92">
+        <v>0.1253007018455852</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.06506642203700198</v>
+        <v>0.2344096636362129</v>
       </c>
       <c r="C93">
-        <v>0.3278050183760068</v>
+        <v>-0.3156502369741728</v>
       </c>
       <c r="D93">
-        <v>0.1723205512904846</v>
+        <v>0.01112475215587063</v>
       </c>
       <c r="E93">
-        <v>-0.04605916123404255</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.008931470312866447</v>
+      </c>
+      <c r="F93">
+        <v>-0.03074290133251779</v>
+      </c>
+      <c r="G93">
+        <v>0.02305168666694549</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03353766926818367</v>
+        <v>0.3159714704338407</v>
       </c>
       <c r="C94">
-        <v>0.1627122655319043</v>
+        <v>0.1809668085723496</v>
       </c>
       <c r="D94">
-        <v>-0.2558715854973136</v>
+        <v>0.0188905026476993</v>
       </c>
       <c r="E94">
-        <v>-0.0133870039955815</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1680658122142528</v>
+      </c>
+      <c r="F94">
+        <v>-0.4796395730852048</v>
+      </c>
+      <c r="G94">
+        <v>-0.3312960267361463</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004227175957904148</v>
+        <v>0.09773918468154963</v>
       </c>
       <c r="C95">
-        <v>0.03386035871323601</v>
+        <v>0.08578205233583118</v>
       </c>
       <c r="D95">
-        <v>-0.09523284503753951</v>
+        <v>0.009856176348709817</v>
       </c>
       <c r="E95">
-        <v>-0.1280400847739939</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06370195903060424</v>
+      </c>
+      <c r="F95">
+        <v>0.2077166734907292</v>
+      </c>
+      <c r="G95">
+        <v>-0.1028070051603299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01619857129194874</v>
+        <v>0.1972911648722702</v>
       </c>
       <c r="C98">
-        <v>0.1509388118099758</v>
+        <v>0.04966993698423006</v>
       </c>
       <c r="D98">
-        <v>-0.1417296413094761</v>
+        <v>0.01199398434212474</v>
       </c>
       <c r="E98">
-        <v>-0.04524468741037088</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06760707310698091</v>
+      </c>
+      <c r="F98">
+        <v>0.2380976122817412</v>
+      </c>
+      <c r="G98">
+        <v>-0.005667047983648188</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008992052269302187</v>
+        <v>0.008839345799711277</v>
       </c>
       <c r="C101">
-        <v>0.01848549063591436</v>
+        <v>0.02063637557111068</v>
       </c>
       <c r="D101">
-        <v>-0.009923441869252227</v>
+        <v>-0.00822093627140108</v>
       </c>
       <c r="E101">
-        <v>0.004021131010787156</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.001956519232204535</v>
+      </c>
+      <c r="F101">
+        <v>-0.01729890006394427</v>
+      </c>
+      <c r="G101">
+        <v>0.07492905777555874</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01882805754198746</v>
+        <v>0.1170730705447976</v>
       </c>
       <c r="C102">
-        <v>0.06888454875713201</v>
+        <v>0.0863994290062961</v>
       </c>
       <c r="D102">
-        <v>-0.1336094526554585</v>
+        <v>-0.0009655203962191419</v>
       </c>
       <c r="E102">
-        <v>0.003222559571433505</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03157571580596515</v>
+      </c>
+      <c r="F102">
+        <v>-0.04014997814473154</v>
+      </c>
+      <c r="G102">
+        <v>0.00442217540787171</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.0009931968792183791</v>
+        <v>0.002211079223985665</v>
       </c>
       <c r="C103">
-        <v>0.00621156904296321</v>
+        <v>0.003454624277470067</v>
       </c>
       <c r="D103">
-        <v>-0.01923228962250574</v>
+        <v>6.871466600792191e-05</v>
       </c>
       <c r="E103">
-        <v>0.01243798506497738</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.0006694353377911429</v>
+      </c>
+      <c r="F103">
+        <v>-0.007036009528604008</v>
+      </c>
+      <c r="G103">
+        <v>0.01064491007499742</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9728689831641566</v>
+        <v>0.02110774606532062</v>
       </c>
       <c r="C104">
-        <v>-0.1864292209777998</v>
+        <v>-0.02956229748237775</v>
       </c>
       <c r="D104">
-        <v>0.01897533498274933</v>
+        <v>-0.9871702599270252</v>
       </c>
       <c r="E104">
-        <v>0.03952626290705871</v>
+        <v>0.05519356560079134</v>
+      </c>
+      <c r="F104">
+        <v>-0.03850410474707543</v>
+      </c>
+      <c r="G104">
+        <v>-0.02563816303250456</v>
       </c>
     </row>
   </sheetData>
